--- a/Skatteregnskab_2021.xlsx
+++ b/Skatteregnskab_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khp\Sync\00_Firma\Accounting\Dinero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE085648-055F-485D-8BC3-FDF3C4FC5BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FC4A59-BE15-4F29-A133-2AD1784CFBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28500" yWindow="10590" windowWidth="22665" windowHeight="20730" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12390" yWindow="6900" windowWidth="22500" windowHeight="23580" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LÆSMIG" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="357">
   <si>
     <t>Konto</t>
   </si>
@@ -924,25 +924,10 @@
     <t>Step 3:</t>
   </si>
   <si>
-    <t>Download data som CSV filer</t>
-  </si>
-  <si>
     <t>Step 4:</t>
   </si>
   <si>
-    <t>Resultat.csv --&gt; in_resopg</t>
-  </si>
-  <si>
-    <t>Balance.csv --&gt; in_balance</t>
-  </si>
-  <si>
     <t>Saldobalance.csv --&gt; in_saldo</t>
-  </si>
-  <si>
-    <t>Vælg de tre første faner en efter en</t>
-  </si>
-  <si>
-    <t>Indsæt data som værdier (Paste as Values) fra CSV filerne i arkene:</t>
   </si>
   <si>
     <t>Antagelser:</t>
@@ -1058,9 +1043,6 @@
     <t>Hensat til udskudt skat</t>
   </si>
   <si>
-    <t>(tjek at de to flueben er sat hver gang)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1081,35 +1063,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> du har oprettet ekstra konti ud over standard konti,</t>
-    </r>
-  </si>
-  <si>
-    <t>For bank konti:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hele arkene </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> kopieres ind (A1 indsættes i A1)</t>
     </r>
   </si>
   <si>
@@ -1216,21 +1169,65 @@
     <t>I Saldobalance arket skal du gøre det samme; her er det række 201.</t>
   </si>
   <si>
-    <t>v1.04, 2021-12-10</t>
-  </si>
-  <si>
     <t>v1.04: Fejlrettelser:
 - Egenkapital beregning I balance ark rettet.
 - Egenkapital (primo) læste forkert celle.
 Forbedringer:
 - Da saldo opgørelsen indeholder alle konti, behøver man ikke længere at hente resultatopgørelse og balance arkene.</t>
   </si>
+  <si>
+    <t>Indsæt data som værdier (Paste as Values) fra CSV filen i arket:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hele arket </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kopieres ind (A1 indsættes i A1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Vælg Saldobalance fanen</t>
+  </si>
+  <si>
+    <t>(tjek at de to flueben er sat)</t>
+  </si>
+  <si>
+    <t>Download data som en CSV fil</t>
+  </si>
+  <si>
+    <t>For bank konto:</t>
+  </si>
+  <si>
+    <t>v1.05: Rettelser til forklaringerne i dette ark. Ingen ændringer til selve beregningerne.</t>
+  </si>
+  <si>
+    <t>v1.05, 2021-12-14</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1399,14 +1396,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1790,7 +1779,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1937,9 +1926,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2007,13 +1993,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19032</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2052,66 +2038,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>250308</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8C4241-C5E8-49D0-8BB4-602BB3511F04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4629150" y="7239000"/>
-          <a:ext cx="5123298" cy="2286000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2160,13 +2097,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>800102</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>513835</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2183,7 +2120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2209,13 +2146,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>360811</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2232,7 +2169,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2258,13 +2195,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2322,18 +2259,160 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>592456</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>173356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B2BC5B-0B26-41F3-AD58-1F8E725AC07A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600701" y="13154026"/>
+          <a:ext cx="3657600" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>135101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5ADE6DC-812B-4211-987A-FC513E4AD5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610226" y="14287500"/>
+          <a:ext cx="3657600" cy="697076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>48114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C7516C3-BF0A-4052-A987-3E25C0EB9FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610226" y="9544892"/>
+          <a:ext cx="3905250" cy="2314222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2348,8 +2427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="8324850"/>
-          <a:ext cx="2847975" cy="247649"/>
+          <a:off x="7372351" y="10829925"/>
+          <a:ext cx="1123950" cy="247649"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2388,104 +2467,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>800101</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>592456</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>173356</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B2BC5B-0B26-41F3-AD58-1F8E725AC07A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5600701" y="13154026"/>
-          <a:ext cx="3657600" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>135101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5ADE6DC-812B-4211-987A-FC513E4AD5BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5610226" y="14287500"/>
-          <a:ext cx="3657600" cy="697076"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2788,21 +2769,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2C1C57-20A4-4774-8A38-8D46A349F5BA}">
-  <dimension ref="B1:D71"/>
+  <dimension ref="B1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="72" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="72"/>
+    <col min="1" max="1" width="3.28515625" style="72" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="72" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="70" t="s">
         <v>288</v>
       </c>
@@ -2810,302 +2791,298 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="73" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="74"/>
-    </row>
-    <row r="3" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+      <c r="C2" s="71"/>
+    </row>
+    <row r="3" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" s="73" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C3" s="74"/>
     </row>
-    <row r="4" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="73" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="74"/>
+    </row>
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="73" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="74"/>
+    </row>
+    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="71"/>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="C4" s="74"/>
-    </row>
-    <row r="5" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="75" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" s="71"/>
-    </row>
-    <row r="6" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="73" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" s="71"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="76"/>
       <c r="C7" s="71"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="76"/>
       <c r="C8" s="71"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="76"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="77" t="s">
+      <c r="C9" s="71"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="76"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="77" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="72" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="72" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="72" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="72" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="72" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="72" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="77" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" s="70" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="70" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="72" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="72" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="72" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="70" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="72" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="72" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="72" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="75" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="78" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="79" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="75" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="72" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="72" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="70" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="72" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="72" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="72" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="70" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="72" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="72" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="D56" s="70" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="72" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="72" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="77" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="70" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="72" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="72" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="72" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="70" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="72" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="72" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="70" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="75" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="70" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="75" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="78" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="79" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="70" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="75" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="72" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="72" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="72" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="72" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="70" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="70" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="72" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="86" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="86" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="72" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="72" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="72" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="70" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="72" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="72" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="70" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="72" t="s">
-        <v>312</v>
-      </c>
-      <c r="D55" s="70" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="72" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="70" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="72" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="72" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="72" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="72" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="72" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="72" t="s">
+        <v>354</v>
+      </c>
+      <c r="D66" s="70" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="72" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="72" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="72" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="72" t="s">
         <v>335</v>
       </c>
-      <c r="D65" s="70" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="72" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="72" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="72" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="72" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="72" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D71" s="70" t="s">
-        <v>339</v>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="72" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="70" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3124,15 +3101,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="18"/>
       <c r="B1" s="64" t="s">
         <v>106</v>
@@ -3145,12 +3122,12 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>1</v>
       </c>
@@ -3166,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>2</v>
       </c>
@@ -3182,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -3195,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="37">
         <v>3</v>
       </c>
@@ -3211,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
@@ -3224,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -3235,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -3248,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
         <v>4</v>
       </c>
@@ -3264,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>5</v>
       </c>
@@ -3280,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
@@ -3295,10 +3272,10 @@
       </c>
       <c r="F18" s="17"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
@@ -3306,10 +3283,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>99</v>
       </c>
@@ -3322,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>85</v>
       </c>
@@ -3335,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
@@ -3348,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
@@ -3361,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>100</v>
       </c>
@@ -3374,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
@@ -3387,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>42</v>
       </c>
@@ -3395,7 +3372,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>7</v>
       </c>
@@ -3411,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>101</v>
       </c>
@@ -3422,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>102</v>
       </c>
@@ -3433,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>49</v>
       </c>
@@ -3446,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>68</v>
       </c>
@@ -3459,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
@@ -3472,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>104</v>
       </c>
@@ -3485,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>60</v>
       </c>
@@ -3498,12 +3475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
     </row>
-    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="57"/>
       <c r="B49" s="58" t="s">
         <v>83</v>
@@ -3512,7 +3489,7 @@
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
         <v>1</v>
       </c>
@@ -3520,7 +3497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
         <v>5</v>
       </c>
@@ -3533,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="13" t="s">
         <v>159</v>
       </c>
@@ -3546,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
         <v>160</v>
       </c>
@@ -3559,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
         <v>162</v>
       </c>
@@ -3572,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="13" t="s">
         <v>6</v>
       </c>
@@ -3585,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
         <v>165</v>
       </c>
@@ -3598,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
         <v>167</v>
       </c>
@@ -3611,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="13" t="s">
         <v>168</v>
       </c>
@@ -3624,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="13" t="s">
         <v>169</v>
       </c>
@@ -3637,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="13" t="s">
         <v>170</v>
       </c>
@@ -3650,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="24"/>
       <c r="C62" s="13"/>
       <c r="D62" s="1">
@@ -3662,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>2</v>
       </c>
@@ -3670,7 +3647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
         <v>26</v>
       </c>
@@ -3683,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>7</v>
       </c>
@@ -3696,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
         <v>172</v>
       </c>
@@ -3709,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
         <v>174</v>
       </c>
@@ -3722,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
         <v>176</v>
       </c>
@@ -3735,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="13" t="s">
         <v>178</v>
       </c>
@@ -3748,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="13" t="s">
         <v>179</v>
       </c>
@@ -3761,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>180</v>
       </c>
@@ -3774,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="13" t="s">
         <v>181</v>
       </c>
@@ -3787,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
         <v>182</v>
       </c>
@@ -3800,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
         <v>203</v>
       </c>
@@ -3813,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D76" s="1">
         <f>SUM(D65:D75)</f>
         <v>0</v>
@@ -3823,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>3</v>
       </c>
@@ -3831,7 +3808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
         <v>28</v>
       </c>
@@ -3844,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
         <v>204</v>
       </c>
@@ -3857,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" s="59" t="s">
         <v>221</v>
       </c>
@@ -3870,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" s="59" t="s">
         <v>29</v>
       </c>
@@ -3883,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" s="59" t="s">
         <v>30</v>
       </c>
@@ -3896,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" s="59" t="s">
         <v>31</v>
       </c>
@@ -3909,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D85" s="1">
         <f>SUM(D79:D84)</f>
         <v>0</v>
@@ -3919,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="37">
         <v>4</v>
       </c>
@@ -3927,7 +3904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
         <v>282</v>
       </c>
@@ -3940,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D89" s="1">
         <f>D88</f>
         <v>0</v>
@@ -3950,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="37">
         <v>5</v>
       </c>
@@ -3958,7 +3935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>278</v>
       </c>
@@ -3971,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D93" s="1">
         <f>D92</f>
         <v>0</v>
@@ -3981,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="37">
         <v>6</v>
       </c>
@@ -3989,7 +3966,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>86</v>
       </c>
@@ -4000,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>87</v>
       </c>
@@ -4011,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>88</v>
       </c>
@@ -4024,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D98" s="1">
         <f>SUM(D95:D97)</f>
         <v>0</v>
@@ -4034,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="37">
         <v>7</v>
       </c>
@@ -4042,7 +4019,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>286</v>
       </c>
@@ -4055,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>43</v>
       </c>
@@ -4068,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>91</v>
       </c>
@@ -4081,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>105</v>
       </c>
@@ -4094,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>89</v>
       </c>
@@ -4105,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>90</v>
       </c>
@@ -4116,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>287</v>
       </c>
@@ -4129,24 +4106,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B110" s="38" t="s">
         <v>107</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>92</v>
       </c>
@@ -4159,14 +4136,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>93</v>
       </c>
       <c r="D114" s="69"/>
       <c r="E114" s="69"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>94</v>
       </c>
@@ -4177,7 +4154,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>95</v>
       </c>
@@ -4188,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D117" s="12">
         <f>SUM(D115:D116)</f>
         <v>3000</v>
@@ -4198,7 +4175,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>96</v>
       </c>
@@ -4209,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>97</v>
       </c>
@@ -4220,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D121" s="12">
         <f>SUM(D119:D120)</f>
         <v>0</v>
@@ -4230,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
         <v>98</v>
       </c>
@@ -4265,15 +4242,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" s="34">
         <f>Skatteregnskab!$D$1</f>
         <v>2021</v>
@@ -4283,7 +4260,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4298,7 +4275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
         <v>24</v>
@@ -4307,7 +4284,7 @@
       <c r="D3" s="60"/>
       <c r="E3" s="43"/>
     </row>
-    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50">
         <v>1000</v>
       </c>
@@ -4326,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50">
         <v>1050</v>
       </c>
@@ -4334,7 +4311,7 @@
         <v>159</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D5" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A5,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A5,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4345,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50">
         <v>1100</v>
       </c>
@@ -4364,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <v>1150</v>
       </c>
@@ -4383,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50">
         <v>1200</v>
       </c>
@@ -4402,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50">
         <v>1250</v>
       </c>
@@ -4421,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50">
         <v>1300</v>
       </c>
@@ -4429,7 +4406,7 @@
         <v>167</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D10" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A10,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A10,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4440,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50">
         <v>1350</v>
       </c>
@@ -4459,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50">
         <v>1400</v>
       </c>
@@ -4467,7 +4444,7 @@
         <v>169</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D12" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A12,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A12,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4478,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50">
         <v>1445</v>
       </c>
@@ -4486,7 +4463,7 @@
         <v>170</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D13" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A13,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A13,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4497,13 +4474,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="50"/>
       <c r="B14" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D14" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A14,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A14,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4514,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>72</v>
@@ -4529,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="14" t="s">
         <v>25</v>
@@ -4538,7 +4515,7 @@
       <c r="D16" s="60"/>
       <c r="E16" s="43"/>
     </row>
-    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="50">
         <v>1450</v>
       </c>
@@ -4546,7 +4523,7 @@
         <v>170</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D17" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A17,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A17,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4557,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <v>2000</v>
       </c>
@@ -4576,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="50">
         <v>2050</v>
       </c>
@@ -4595,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="50">
         <v>2060</v>
       </c>
@@ -4603,7 +4580,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D20" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A20,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A20,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4614,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50">
         <v>2100</v>
       </c>
@@ -4633,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <v>2150</v>
       </c>
@@ -4652,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>2200</v>
       </c>
@@ -4671,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50">
         <v>2250</v>
       </c>
@@ -4690,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <v>2300</v>
       </c>
@@ -4698,7 +4675,7 @@
         <v>179</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D25" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A25,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A25,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4709,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="83">
         <v>2350</v>
       </c>
@@ -4728,10 +4705,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51"/>
       <c r="B27" s="21" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="22">
@@ -4743,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
         <v>26</v>
@@ -4758,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80">
         <v>2400</v>
       </c>
@@ -4775,13 +4752,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="21" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D30" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A30,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A30,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4792,10 +4769,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="82"/>
       <c r="B31" s="80" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="81">
@@ -4807,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="30" t="s">
         <v>34</v>
@@ -4822,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8" t="s">
         <v>75</v>
@@ -4837,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="14" t="s">
         <v>27</v>
@@ -4846,7 +4823,7 @@
       <c r="D34" s="60"/>
       <c r="E34" s="43"/>
     </row>
-    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50">
         <v>2450</v>
       </c>
@@ -4854,7 +4831,7 @@
         <v>182</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D35" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A35,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A35,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4865,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50">
         <v>2800</v>
       </c>
@@ -4884,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50">
         <v>3000</v>
       </c>
@@ -4892,7 +4869,7 @@
         <v>183</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D37" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A37,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A37,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4903,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50">
         <v>3020</v>
       </c>
@@ -4911,7 +4888,7 @@
         <v>184</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D38" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A38,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A38,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4922,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50">
         <v>3040</v>
       </c>
@@ -4930,7 +4907,7 @@
         <v>185</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D39" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A39,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A39,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4941,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50">
         <v>3060</v>
       </c>
@@ -4949,7 +4926,7 @@
         <v>186</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D40" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A40,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A40,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4960,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50">
         <v>3070</v>
       </c>
@@ -4968,7 +4945,7 @@
         <v>187</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D41" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A41,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A41,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4979,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <v>3080</v>
       </c>
@@ -4987,7 +4964,7 @@
         <v>188</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D42" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A42,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A42,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -4998,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50">
         <v>3090</v>
       </c>
@@ -5006,7 +4983,7 @@
         <v>189</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D43" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A43,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A43,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5017,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50">
         <v>3100</v>
       </c>
@@ -5025,7 +5002,7 @@
         <v>190</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D44" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A44,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A44,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5036,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50">
         <v>3120</v>
       </c>
@@ -5044,7 +5021,7 @@
         <v>191</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D45" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A45,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A45,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5055,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50">
         <v>3140</v>
       </c>
@@ -5063,7 +5040,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D46" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A46,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A46,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5074,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50">
         <v>3160</v>
       </c>
@@ -5082,7 +5059,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D47" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A47,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A47,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5093,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50">
         <v>3180</v>
       </c>
@@ -5101,7 +5078,7 @@
         <v>192</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D48" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A48,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A48,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5112,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50">
         <v>3200</v>
       </c>
@@ -5131,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50">
         <v>3220</v>
       </c>
@@ -5139,7 +5116,7 @@
         <v>194</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D50" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A50,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A50,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5150,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50">
         <v>3240</v>
       </c>
@@ -5169,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50">
         <v>3260</v>
       </c>
@@ -5177,7 +5154,7 @@
         <v>196</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D52" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A52,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A52,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5188,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50">
         <v>3280</v>
       </c>
@@ -5207,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="50">
         <v>3285</v>
       </c>
@@ -5215,7 +5192,7 @@
         <v>198</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D54" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A54,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A54,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5226,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83">
         <v>3300</v>
       </c>
@@ -5245,10 +5222,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="51"/>
       <c r="B56" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="23">
@@ -5260,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="8" t="s">
         <v>285</v>
@@ -5275,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="14" t="s">
         <v>204</v>
@@ -5284,7 +5261,7 @@
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
     </row>
-    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50">
         <v>3320</v>
       </c>
@@ -5292,7 +5269,7 @@
         <v>200</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D59" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A59,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A59,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5303,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="50">
         <v>3340</v>
       </c>
@@ -5311,7 +5288,7 @@
         <v>201</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D60" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A60,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A60,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5322,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="50">
         <v>3355</v>
       </c>
@@ -5330,7 +5307,7 @@
         <v>202</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D61" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A61,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A61,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5341,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="50">
         <v>4000</v>
       </c>
@@ -5360,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50">
         <v>4020</v>
       </c>
@@ -5379,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="50">
         <v>4040</v>
       </c>
@@ -5398,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="50">
         <v>4060</v>
       </c>
@@ -5417,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="50">
         <v>4080</v>
       </c>
@@ -5425,7 +5402,7 @@
         <v>209</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D66" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A66,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A66,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5436,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="50">
         <v>4100</v>
       </c>
@@ -5455,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="50">
         <v>4120</v>
       </c>
@@ -5474,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50">
         <v>4140</v>
       </c>
@@ -5493,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50">
         <v>4160</v>
       </c>
@@ -5512,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="50">
         <v>4180</v>
       </c>
@@ -5520,7 +5497,7 @@
         <v>215</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D71" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A71,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A71,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5531,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="83">
         <v>4200</v>
       </c>
@@ -5550,10 +5527,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="51"/>
       <c r="B73" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="23">
@@ -5565,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="8" t="s">
         <v>281</v>
@@ -5580,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="14" t="s">
         <v>221</v>
@@ -5588,10 +5565,10 @@
       <c r="C75" s="19"/>
       <c r="D75" s="23"/>
       <c r="E75" s="84" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="50">
         <v>4220</v>
       </c>
@@ -5599,7 +5576,7 @@
         <v>217</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D76" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A76,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A76,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5610,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="50">
         <v>4240</v>
       </c>
@@ -5629,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="50">
         <v>4260</v>
       </c>
@@ -5637,7 +5614,7 @@
         <v>219</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D78" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A78,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A78,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5648,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="50">
         <v>5000</v>
       </c>
@@ -5667,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="50">
         <v>5010</v>
       </c>
@@ -5675,7 +5652,7 @@
         <v>223</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D80" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A80,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A80,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5686,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="50">
         <v>5020</v>
       </c>
@@ -5705,7 +5682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="50">
         <v>5040</v>
       </c>
@@ -5713,7 +5690,7 @@
         <v>225</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D82" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A82,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A82,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5724,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="50">
         <v>5060</v>
       </c>
@@ -5743,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="50">
         <v>5080</v>
       </c>
@@ -5762,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="83">
         <v>5100</v>
       </c>
@@ -5779,13 +5756,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="51"/>
       <c r="B86" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D86" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A86,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A86,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5796,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="8" t="s">
         <v>232</v>
@@ -5811,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="14" t="s">
         <v>29</v>
@@ -5820,7 +5797,7 @@
       <c r="D88" s="43"/>
       <c r="E88" s="43"/>
     </row>
-    <row r="89" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="50">
         <v>5120</v>
       </c>
@@ -5828,7 +5805,7 @@
         <v>229</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D89" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A89,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A89,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5839,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="50">
         <v>5140</v>
       </c>
@@ -5858,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="50">
         <v>5160</v>
       </c>
@@ -5877,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="50">
         <v>6000</v>
       </c>
@@ -5896,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="50">
         <v>6020</v>
       </c>
@@ -5915,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="50">
         <v>6040</v>
       </c>
@@ -5934,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="50">
         <v>6060</v>
       </c>
@@ -5942,7 +5919,7 @@
         <v>236</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D95" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A95,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A95,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5953,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="50">
         <v>6080</v>
       </c>
@@ -5972,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="50">
         <v>6085</v>
       </c>
@@ -5980,7 +5957,7 @@
         <v>238</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D97" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A97,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A97,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -5991,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="50">
         <v>6100</v>
       </c>
@@ -6010,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="50">
         <v>6120</v>
       </c>
@@ -6018,7 +5995,7 @@
         <v>240</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D99" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A99,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A99,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6029,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="50">
         <v>6140</v>
       </c>
@@ -6037,7 +6014,7 @@
         <v>241</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D100" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A100,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A100,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6048,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="50">
         <v>6160</v>
       </c>
@@ -6056,7 +6033,7 @@
         <v>242</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D101" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A101,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A101,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6067,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="50">
         <v>6180</v>
       </c>
@@ -6075,7 +6052,7 @@
         <v>243</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D102" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A102,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A102,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6086,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="50">
         <v>6200</v>
       </c>
@@ -6105,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="83">
         <v>6400</v>
       </c>
@@ -6122,13 +6099,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="50"/>
       <c r="B105" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D105" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A105,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A105,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6139,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="8" t="s">
         <v>78</v>
@@ -6154,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="14" t="s">
         <v>30</v>
@@ -6163,7 +6140,7 @@
       <c r="D107" s="43"/>
       <c r="E107" s="43"/>
     </row>
-    <row r="108" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="50">
         <v>7000</v>
       </c>
@@ -6182,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="50">
         <v>7020</v>
       </c>
@@ -6201,7 +6178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="50">
         <v>7040</v>
       </c>
@@ -6220,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="50">
         <v>7060</v>
       </c>
@@ -6239,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="50">
         <v>7080</v>
       </c>
@@ -6247,7 +6224,7 @@
         <v>12</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D112" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A112,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A112,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6258,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="50">
         <v>7100</v>
       </c>
@@ -6266,7 +6243,7 @@
         <v>249</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D113" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A113,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A113,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6277,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="50">
         <v>7120</v>
       </c>
@@ -6296,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="50">
         <v>7140</v>
       </c>
@@ -6315,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="50">
         <v>7160</v>
       </c>
@@ -6323,7 +6300,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D116" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A116,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A116,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6334,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="50">
         <v>7180</v>
       </c>
@@ -6353,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="50">
         <v>7200</v>
       </c>
@@ -6372,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="50">
         <v>7220</v>
       </c>
@@ -6380,7 +6357,7 @@
         <v>16</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D119" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A119,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A119,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6391,7 +6368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="50">
         <v>7240</v>
       </c>
@@ -6410,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="50">
         <v>7260</v>
       </c>
@@ -6418,7 +6395,7 @@
         <v>252</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D121" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A121,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A121,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6429,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="50">
         <v>7280</v>
       </c>
@@ -6448,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="50">
         <v>7300</v>
       </c>
@@ -6467,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="50">
         <v>7320</v>
       </c>
@@ -6486,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="50">
         <v>7340</v>
       </c>
@@ -6505,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="50">
         <v>7360</v>
       </c>
@@ -6513,7 +6490,7 @@
         <v>254</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D126" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A126,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A126,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6524,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="50">
         <v>7380</v>
       </c>
@@ -6532,7 +6509,7 @@
         <v>255</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D127" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A127,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A127,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6543,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="50">
         <v>7400</v>
       </c>
@@ -6562,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A129" s="50">
         <v>7420</v>
       </c>
@@ -6570,7 +6547,7 @@
         <v>257</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D129" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A129,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A129,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6581,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A130" s="50">
         <v>7440</v>
       </c>
@@ -6589,7 +6566,7 @@
         <v>258</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D130" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A130,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A130,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6600,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="50">
         <v>7460</v>
       </c>
@@ -6619,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="50">
         <v>7480</v>
       </c>
@@ -6627,7 +6604,7 @@
         <v>260</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D132" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A132,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A132,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6638,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="83">
         <v>7500</v>
       </c>
@@ -6657,10 +6634,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A134" s="51"/>
       <c r="B134" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="23">
@@ -6672,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="8" t="s">
         <v>79</v>
@@ -6687,7 +6664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="14" t="s">
         <v>31</v>
@@ -6696,7 +6673,7 @@
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
     </row>
-    <row r="137" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A137" s="50">
         <v>7520</v>
       </c>
@@ -6704,7 +6681,7 @@
         <v>262</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D137" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A137,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A137,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6715,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A138" s="50">
         <v>7540</v>
       </c>
@@ -6734,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A139" s="50">
         <v>7560</v>
       </c>
@@ -6753,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A140" s="50">
         <v>8000</v>
       </c>
@@ -6761,7 +6738,7 @@
         <v>265</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D140" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A140,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A140,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6772,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="50">
         <v>8020</v>
       </c>
@@ -6780,7 +6757,7 @@
         <v>266</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D141" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A141,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A141,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6791,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="50">
         <v>8040</v>
       </c>
@@ -6810,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="50">
         <v>8050</v>
       </c>
@@ -6829,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="83">
         <v>8060</v>
       </c>
@@ -6846,13 +6823,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="50"/>
       <c r="B145" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D145" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A145,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A145,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6863,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="8" t="s">
         <v>82</v>
@@ -6878,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="B147" s="14" t="s">
         <v>32</v>
@@ -6887,7 +6864,7 @@
       <c r="D147" s="23"/>
       <c r="E147" s="23"/>
     </row>
-    <row r="148" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A148" s="50">
         <v>9000</v>
       </c>
@@ -6895,7 +6872,7 @@
         <v>23</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D148" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A148,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A148,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6906,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A149" s="50">
         <v>9010</v>
       </c>
@@ -6923,13 +6900,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A150" s="50"/>
       <c r="B150" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D150" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A150,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A150,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6940,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="8" t="s">
         <v>283</v>
@@ -6955,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="13"/>
       <c r="B152" s="14" t="s">
         <v>278</v>
@@ -6964,7 +6941,7 @@
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
     </row>
-    <row r="153" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A153" s="50">
         <v>9200</v>
       </c>
@@ -6972,7 +6949,7 @@
         <v>23</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D153" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A153,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A153,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -6983,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A154" s="50">
         <v>9210</v>
       </c>
@@ -6991,7 +6968,7 @@
         <v>271</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D154" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A154,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A154,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7002,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A155" s="50">
         <v>9220</v>
       </c>
@@ -7019,13 +6996,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A156" s="50"/>
       <c r="B156" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D156" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A156,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A156,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7036,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="7"/>
       <c r="B157" s="8" t="s">
         <v>284</v>
@@ -7051,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="10" t="s">
         <v>33</v>
@@ -7066,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -7094,17 +7071,17 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" s="34">
         <f>Skatteregnskab!$D$1</f>
         <v>2021</v>
@@ -7114,7 +7091,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7131,7 +7108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>54</v>
@@ -7140,7 +7117,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
         <v>122</v>
@@ -7149,7 +7126,7 @@
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>50000</v>
       </c>
@@ -7157,7 +7134,7 @@
         <v>108</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D5" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A5,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A5,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7168,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>50020</v>
       </c>
@@ -7187,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>50040</v>
       </c>
@@ -7195,7 +7172,7 @@
         <v>111</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D7" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A7,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A7,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7206,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>50060</v>
       </c>
@@ -7223,13 +7200,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D9" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A9,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A9,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7240,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>120</v>
@@ -7255,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14" t="s">
         <v>121</v>
@@ -7270,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>51000</v>
       </c>
@@ -7278,7 +7255,7 @@
         <v>113</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D12" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A12,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A12,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7289,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>51020</v>
       </c>
@@ -7308,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>51040</v>
       </c>
@@ -7316,7 +7293,7 @@
         <v>115</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D14" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A14,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A14,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7327,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>51060</v>
       </c>
@@ -7344,13 +7321,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="19" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D16" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A16,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A16,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7361,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>123</v>
@@ -7376,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="14" t="s">
         <v>124</v>
@@ -7385,7 +7362,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>51500</v>
       </c>
@@ -7402,13 +7379,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D20" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A20,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A20,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7419,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
         <v>125</v>
@@ -7434,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
         <v>126</v>
@@ -7449,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="24" t="s">
         <v>100</v>
@@ -7458,7 +7435,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>52000</v>
       </c>
@@ -7466,7 +7443,7 @@
         <v>118</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D24" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A24,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A24,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7477,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>52020</v>
       </c>
@@ -7494,13 +7471,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="19" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D26" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A26,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A26,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7511,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
         <v>127</v>
@@ -7526,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="11" t="s">
         <v>55</v>
@@ -7535,7 +7512,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>53000</v>
       </c>
@@ -7543,7 +7520,7 @@
         <v>44</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D29" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A29,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A29,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7554,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>53020</v>
       </c>
@@ -7571,13 +7548,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="39" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D31" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A31,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A31,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7588,9 +7565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
-      <c r="B32" s="87" t="s">
+      <c r="B32" s="86" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="47"/>
@@ -7603,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>54000</v>
       </c>
@@ -7611,7 +7588,7 @@
         <v>101</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D33" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A33,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A33,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7622,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>54020</v>
       </c>
@@ -7630,7 +7607,7 @@
         <v>274</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D34" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A34,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A34,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7641,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>54040</v>
       </c>
@@ -7649,7 +7626,7 @@
         <v>275</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D35" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A35,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A35,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7660,7 +7637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>54060</v>
       </c>
@@ -7677,10 +7654,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="22">
@@ -7692,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="11" t="s">
         <v>277</v>
@@ -7707,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="11" t="s">
         <v>62</v>
@@ -7722,20 +7699,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>55000</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D41" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A41,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A41,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7746,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>55040</v>
       </c>
@@ -7763,13 +7740,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D43" s="22">
         <f>IF(""=IFERROR(VLOOKUP($A43,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A43,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7780,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="11" t="s">
         <v>57</v>
@@ -7795,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8" t="s">
         <v>58</v>
@@ -7810,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="11" t="s">
         <v>59</v>
@@ -7825,22 +7802,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>60000</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D49" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A49,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A49,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7851,12 +7828,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>60020</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D50" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A50,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A50,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7867,12 +7844,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>60040</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D51" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A51,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A51,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7883,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>60100</v>
       </c>
@@ -7899,12 +7876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D53" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A53,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A53,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7915,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="8" t="s">
         <v>64</v>
@@ -7931,7 +7908,7 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>60120</v>
       </c>
@@ -7939,7 +7916,7 @@
         <v>47</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D55" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A55,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A55,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7950,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>60140</v>
       </c>
@@ -7958,7 +7935,7 @@
         <v>48</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D56" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A56,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A56,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7969,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>60160</v>
       </c>
@@ -7977,7 +7954,7 @@
         <v>130</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D57" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A57,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A57,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -7988,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>60180</v>
       </c>
@@ -7996,7 +7973,7 @@
         <v>131</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D58" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A58,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A58,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8007,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>60197</v>
       </c>
@@ -8015,7 +7992,7 @@
         <v>132</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D59" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A59,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A59,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8026,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>60200</v>
       </c>
@@ -8043,12 +8020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D61" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A61,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A61,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8059,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="8" t="s">
         <v>65</v>
@@ -8074,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="2" t="s">
         <v>134</v>
@@ -8083,7 +8060,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>61000</v>
       </c>
@@ -8091,7 +8068,7 @@
         <v>135</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D64" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A64,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A64,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8102,15 +8079,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>61020</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D65" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A65,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A65,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8121,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>61040</v>
       </c>
@@ -8138,12 +8115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D67" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A67,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A67,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8154,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="8" t="s">
         <v>137</v>
@@ -8169,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="14" t="s">
         <v>138</v>
@@ -8178,7 +8155,7 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>62000</v>
       </c>
@@ -8195,10 +8172,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="19" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="23">
@@ -8210,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="8" t="s">
         <v>140</v>
@@ -8225,12 +8202,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>63000</v>
       </c>
@@ -8238,7 +8215,7 @@
         <v>141</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D74" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A74,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A74,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8249,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>63020</v>
       </c>
@@ -8257,7 +8234,7 @@
         <v>142</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D75" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A75,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A75,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8268,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>63040</v>
       </c>
@@ -8276,7 +8253,7 @@
         <v>143</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D76" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A76,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A76,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8287,15 +8264,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>63060</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D77" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A77,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A77,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8306,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>63080</v>
       </c>
@@ -8314,7 +8291,7 @@
         <v>144</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D78" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A78,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A78,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8325,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>63100</v>
       </c>
@@ -8342,12 +8319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D80" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A80,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A80,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8358,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
         <v>67</v>
@@ -8373,12 +8350,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>64000</v>
       </c>
@@ -8386,7 +8363,7 @@
         <v>50</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D83" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A83,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A83,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8397,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>64020</v>
       </c>
@@ -8405,7 +8382,7 @@
         <v>51</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D84" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A84,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A84,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8416,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>64040</v>
       </c>
@@ -8424,7 +8401,7 @@
         <v>145</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D85" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A85,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A85,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8435,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>64060</v>
       </c>
@@ -8443,7 +8420,7 @@
         <v>52</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D86" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A86,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A86,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8454,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>64080</v>
       </c>
@@ -8462,7 +8439,7 @@
         <v>146</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D87" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A87,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A87,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8473,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>64100</v>
       </c>
@@ -8490,12 +8467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D89" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A89,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A89,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8506,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="8" t="s">
         <v>69</v>
@@ -8521,14 +8498,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
         <v>155</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
     </row>
-    <row r="92" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>65000</v>
       </c>
@@ -8536,7 +8513,7 @@
         <v>147</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D92" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A92,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A92,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8547,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>65020</v>
       </c>
@@ -8555,7 +8532,7 @@
         <v>148</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D93" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A93,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A93,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8566,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>65040</v>
       </c>
@@ -8574,7 +8551,7 @@
         <v>149</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D94" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A94,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A94,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8585,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>65060</v>
       </c>
@@ -8593,7 +8570,7 @@
         <v>150</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D95" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A95,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A95,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8604,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>65080</v>
       </c>
@@ -8612,7 +8589,7 @@
         <v>151</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D96" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A96,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A96,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8623,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>65100</v>
       </c>
@@ -8631,7 +8608,7 @@
         <v>152</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D97" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A97,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A97,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8642,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>65120</v>
       </c>
@@ -8659,12 +8636,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D99" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A99,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A99,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8675,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="8" t="s">
         <v>154</v>
@@ -8690,14 +8667,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="7"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
     </row>
-    <row r="102" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="8" t="s">
         <v>70</v>
@@ -8712,14 +8689,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="7"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
     </row>
-    <row r="104" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="8" t="s">
         <v>71</v>
@@ -8736,18 +8713,18 @@
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
     </row>
-    <row r="106" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="14" t="s">
         <v>156</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>99999</v>
       </c>
@@ -8755,7 +8732,7 @@
         <v>157</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D107" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A107,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A107,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8784,15 +8761,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" s="34">
         <f>Skatteregnskab!$D$1</f>
         <v>2021</v>
@@ -8802,7 +8779,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -8819,7 +8796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -8828,7 +8805,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>1000</v>
       </c>
@@ -8847,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>1050</v>
       </c>
@@ -8855,7 +8832,7 @@
         <v>159</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D5" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A5,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A5,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8866,7 +8843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>1100</v>
       </c>
@@ -8885,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>1150</v>
       </c>
@@ -8904,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>1200</v>
       </c>
@@ -8923,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>1250</v>
       </c>
@@ -8942,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>1300</v>
       </c>
@@ -8950,7 +8927,7 @@
         <v>167</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D10" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A10,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A10,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8961,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>1350</v>
       </c>
@@ -8980,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>1400</v>
       </c>
@@ -8988,7 +8965,7 @@
         <v>169</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D12" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A12,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A12,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -8999,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>1445</v>
       </c>
@@ -9016,13 +8993,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D14" s="22">
         <f>IF(""=IFERROR(VLOOKUP($A13,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A13,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9033,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="30" t="s">
         <v>72</v>
@@ -9048,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="24" t="s">
         <v>25</v>
@@ -9057,7 +9034,7 @@
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>2000</v>
       </c>
@@ -9076,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>2050</v>
       </c>
@@ -9095,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>2100</v>
       </c>
@@ -9114,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>2150</v>
       </c>
@@ -9133,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>2200</v>
       </c>
@@ -9152,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>2250</v>
       </c>
@@ -9171,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>2300</v>
       </c>
@@ -9179,7 +9156,7 @@
         <v>179</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D23" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A23,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A23,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9190,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>2350</v>
       </c>
@@ -9209,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>2400</v>
       </c>
@@ -9217,7 +9194,7 @@
         <v>181</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D25" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A25,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A25,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9228,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>2450</v>
       </c>
@@ -9245,13 +9222,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D27" s="22">
         <f>IF(""=IFERROR(VLOOKUP($A26,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A26,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9262,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="28" t="s">
         <v>73</v>
@@ -9277,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>2800</v>
       </c>
@@ -9296,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="31" t="s">
         <v>74</v>
@@ -9311,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="28" t="s">
         <v>75</v>
@@ -9326,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="24" t="s">
         <v>76</v>
@@ -9335,7 +9312,7 @@
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>3000</v>
       </c>
@@ -9343,7 +9320,7 @@
         <v>183</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D33" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A33,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A33,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9354,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>3020</v>
       </c>
@@ -9362,7 +9339,7 @@
         <v>184</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D34" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A34,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A34,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9373,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>3040</v>
       </c>
@@ -9381,7 +9358,7 @@
         <v>185</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D35" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A35,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A35,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9392,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>3060</v>
       </c>
@@ -9400,7 +9377,7 @@
         <v>186</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D36" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A36,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A36,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9411,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>3070</v>
       </c>
@@ -9419,7 +9396,7 @@
         <v>187</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D37" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A37,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A37,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9430,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>3080</v>
       </c>
@@ -9438,7 +9415,7 @@
         <v>188</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D38" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A38,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A38,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9449,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>3090</v>
       </c>
@@ -9457,7 +9434,7 @@
         <v>189</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D39" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A39,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A39,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9468,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>3100</v>
       </c>
@@ -9476,7 +9453,7 @@
         <v>190</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D40" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A40,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A40,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9487,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>3120</v>
       </c>
@@ -9495,7 +9472,7 @@
         <v>191</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D41" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A41,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A41,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9506,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>3140</v>
       </c>
@@ -9514,7 +9491,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D42" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A42,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A42,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9525,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>3160</v>
       </c>
@@ -9533,7 +9510,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D43" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A43,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A43,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9544,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>3180</v>
       </c>
@@ -9552,7 +9529,7 @@
         <v>192</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D44" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A44,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A44,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9563,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
         <v>3200</v>
       </c>
@@ -9582,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>3220</v>
       </c>
@@ -9590,7 +9567,7 @@
         <v>194</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D46" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A46,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A46,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9601,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>3240</v>
       </c>
@@ -9620,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>3260</v>
       </c>
@@ -9628,7 +9605,7 @@
         <v>196</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D48" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A48,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A48,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9639,7 +9616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>3280</v>
       </c>
@@ -9658,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>3300</v>
       </c>
@@ -9677,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>3320</v>
       </c>
@@ -9685,7 +9662,7 @@
         <v>200</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D51" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A51,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A51,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9696,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>3340</v>
       </c>
@@ -9704,7 +9681,7 @@
         <v>201</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D52" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A52,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A52,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9715,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>3355</v>
       </c>
@@ -9732,13 +9709,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D54" s="22">
         <f>IF(""=IFERROR(VLOOKUP($A53,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A53,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9749,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
       <c r="B55" s="31" t="s">
         <v>77</v>
@@ -9764,7 +9741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="24" t="s">
         <v>204</v>
@@ -9773,7 +9750,7 @@
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>4000</v>
       </c>
@@ -9792,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>4020</v>
       </c>
@@ -9811,7 +9788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>4040</v>
       </c>
@@ -9830,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>4060</v>
       </c>
@@ -9849,7 +9826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>4080</v>
       </c>
@@ -9857,7 +9834,7 @@
         <v>209</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D61" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A61,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A61,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9868,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>4100</v>
       </c>
@@ -9887,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>4120</v>
       </c>
@@ -9906,7 +9883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>4140</v>
       </c>
@@ -9925,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>4160</v>
       </c>
@@ -9944,7 +9921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>4180</v>
       </c>
@@ -9952,7 +9929,7 @@
         <v>215</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D66" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A66,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A66,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -9963,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>4200</v>
       </c>
@@ -9982,7 +9959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>4220</v>
       </c>
@@ -9990,7 +9967,7 @@
         <v>217</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D68" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A68,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A68,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10001,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>4240</v>
       </c>
@@ -10020,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>4260</v>
       </c>
@@ -10037,12 +10014,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D71" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A70,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A70,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10053,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="25" t="s">
         <v>220</v>
@@ -10068,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="24" t="s">
         <v>221</v>
@@ -10077,7 +10054,7 @@
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>5000</v>
       </c>
@@ -10096,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>5010</v>
       </c>
@@ -10104,7 +10081,7 @@
         <v>223</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D75" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A75,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A75,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10115,7 +10092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>5020</v>
       </c>
@@ -10134,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>5040</v>
       </c>
@@ -10142,7 +10119,7 @@
         <v>225</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D77" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A77,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A77,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10153,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>5060</v>
       </c>
@@ -10172,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>5080</v>
       </c>
@@ -10191,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>5100</v>
       </c>
@@ -10199,7 +10176,7 @@
         <v>228</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D80" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A80,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A80,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10210,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>5120</v>
       </c>
@@ -10218,7 +10195,7 @@
         <v>229</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D81" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A81,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A81,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10229,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>5140</v>
       </c>
@@ -10248,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>5160</v>
       </c>
@@ -10267,9 +10244,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D84" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A83,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A83,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10280,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="25" t="s">
         <v>232</v>
@@ -10295,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="24" t="s">
         <v>29</v>
@@ -10304,7 +10281,7 @@
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>6000</v>
       </c>
@@ -10323,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>6020</v>
       </c>
@@ -10342,7 +10319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>6040</v>
       </c>
@@ -10361,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>6060</v>
       </c>
@@ -10369,7 +10346,7 @@
         <v>236</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D90" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A90,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A90,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10380,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>6080</v>
       </c>
@@ -10399,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>6085</v>
       </c>
@@ -10407,7 +10384,7 @@
         <v>238</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D92" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A92,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A92,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10418,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>6100</v>
       </c>
@@ -10437,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>6120</v>
       </c>
@@ -10445,7 +10422,7 @@
         <v>240</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D94" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A94,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A94,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10456,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>6140</v>
       </c>
@@ -10464,7 +10441,7 @@
         <v>241</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D95" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A95,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A95,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10475,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>6160</v>
       </c>
@@ -10483,7 +10460,7 @@
         <v>242</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D96" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A96,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A96,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10494,7 +10471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>6180</v>
       </c>
@@ -10502,7 +10479,7 @@
         <v>243</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D97" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A97,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A97,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10513,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>6200</v>
       </c>
@@ -10532,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>6400</v>
       </c>
@@ -10549,12 +10526,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D100" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A99,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A99,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10565,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="31" t="s">
         <v>78</v>
@@ -10580,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="24" t="s">
         <v>30</v>
@@ -10589,7 +10566,7 @@
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>7000</v>
       </c>
@@ -10608,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>7020</v>
       </c>
@@ -10627,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>7040</v>
       </c>
@@ -10646,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>7060</v>
       </c>
@@ -10665,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>7080</v>
       </c>
@@ -10673,7 +10650,7 @@
         <v>12</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D107" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A107,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A107,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10684,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="19">
         <v>7100</v>
       </c>
@@ -10692,7 +10669,7 @@
         <v>249</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D108" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A108,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A108,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10703,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="19">
         <v>7120</v>
       </c>
@@ -10722,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="19">
         <v>7140</v>
       </c>
@@ -10741,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="19">
         <v>7160</v>
       </c>
@@ -10749,7 +10726,7 @@
         <v>14</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D111" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A111,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A111,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10760,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="19">
         <v>7180</v>
       </c>
@@ -10779,7 +10756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="19">
         <v>7200</v>
       </c>
@@ -10798,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>7220</v>
       </c>
@@ -10806,7 +10783,7 @@
         <v>16</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D114" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A114,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A114,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10817,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="19">
         <v>7240</v>
       </c>
@@ -10836,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="19">
         <v>7260</v>
       </c>
@@ -10844,7 +10821,7 @@
         <v>252</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D116" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A116,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A116,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10855,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="19">
         <v>7280</v>
       </c>
@@ -10874,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="19">
         <v>7300</v>
       </c>
@@ -10893,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>7320</v>
       </c>
@@ -10912,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="19">
         <v>7340</v>
       </c>
@@ -10931,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="19">
         <v>7360</v>
       </c>
@@ -10939,7 +10916,7 @@
         <v>254</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D121" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A121,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A121,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10950,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
         <v>7380</v>
       </c>
@@ -10958,7 +10935,7 @@
         <v>255</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D122" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A122,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A122,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -10969,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
         <v>7400</v>
       </c>
@@ -10988,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
         <v>7420</v>
       </c>
@@ -10996,7 +10973,7 @@
         <v>257</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D124" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A124,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A124,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11007,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
         <v>7440</v>
       </c>
@@ -11015,7 +10992,7 @@
         <v>258</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D125" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A125,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A125,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11026,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
         <v>7460</v>
       </c>
@@ -11045,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
         <v>7480</v>
       </c>
@@ -11053,7 +11030,7 @@
         <v>260</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D127" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A127,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A127,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11064,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
         <v>7500</v>
       </c>
@@ -11083,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
         <v>7520</v>
       </c>
@@ -11091,7 +11068,7 @@
         <v>262</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D129" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A129,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A129,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11102,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
         <v>7540</v>
       </c>
@@ -11121,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
         <v>7560</v>
       </c>
@@ -11140,9 +11117,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B132" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C132" s="19"/>
       <c r="D132" s="23">
@@ -11154,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="32"/>
       <c r="B133" s="31" t="s">
         <v>79</v>
@@ -11169,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="24" t="s">
         <v>31</v>
@@ -11178,7 +11155,7 @@
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
         <v>8000</v>
       </c>
@@ -11186,7 +11163,7 @@
         <v>265</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D135" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A135,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A135,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11198,7 +11175,7 @@
       </c>
       <c r="F135" s="13"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
         <v>8020</v>
       </c>
@@ -11206,7 +11183,7 @@
         <v>266</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D136" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A136,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A136,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11218,7 +11195,7 @@
       </c>
       <c r="F136" s="13"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
         <v>8040</v>
       </c>
@@ -11238,7 +11215,7 @@
       </c>
       <c r="F137" s="13"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
         <v>8050</v>
       </c>
@@ -11258,7 +11235,7 @@
       </c>
       <c r="F138" s="13"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
         <v>8060</v>
       </c>
@@ -11276,12 +11253,12 @@
       </c>
       <c r="F139" s="13"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B140" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D140" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A139,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A139,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11293,7 +11270,7 @@
       </c>
       <c r="F140" s="13"/>
     </row>
-    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="32"/>
       <c r="B141" s="31" t="s">
         <v>82</v>
@@ -11309,7 +11286,7 @@
       </c>
       <c r="F141" s="13"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
       <c r="B142" s="24" t="s">
         <v>81</v>
@@ -11319,7 +11296,7 @@
       <c r="E142" s="23"/>
       <c r="F142" s="13"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
         <v>9000</v>
       </c>
@@ -11327,7 +11304,7 @@
         <v>23</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D143" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A143,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A143,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11339,7 +11316,7 @@
       </c>
       <c r="F143" s="13"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
         <v>9010</v>
       </c>
@@ -11357,12 +11334,12 @@
       </c>
       <c r="F144" s="13"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B145" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D145" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A144,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A144,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11374,7 +11351,7 @@
       </c>
       <c r="F145" s="13"/>
     </row>
-    <row r="146" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="32"/>
       <c r="B146" s="31" t="s">
         <v>80</v>
@@ -11390,7 +11367,7 @@
       </c>
       <c r="F146" s="13"/>
     </row>
-    <row r="147" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="24" t="s">
         <v>270</v>
@@ -11400,7 +11377,7 @@
       <c r="E147" s="42"/>
       <c r="F147" s="13"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
         <v>9200</v>
       </c>
@@ -11408,7 +11385,7 @@
         <v>23</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D148" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A148,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A148,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11420,7 +11397,7 @@
       </c>
       <c r="F148" s="13"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
         <v>9210</v>
       </c>
@@ -11428,7 +11405,7 @@
         <v>271</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D149" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A149,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A149,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11440,7 +11417,7 @@
       </c>
       <c r="F149" s="13"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
         <v>9220</v>
       </c>
@@ -11458,12 +11435,12 @@
       </c>
       <c r="F150" s="13"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B151" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D151" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A150,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A150,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11475,7 +11452,7 @@
       </c>
       <c r="F151" s="13"/>
     </row>
-    <row r="152" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="32"/>
       <c r="B152" s="31" t="s">
         <v>273</v>
@@ -11491,25 +11468,25 @@
       </c>
       <c r="F152" s="13"/>
     </row>
-    <row r="153" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="24" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C153" s="40"/>
       <c r="D153" s="42"/>
       <c r="E153" s="42"/>
       <c r="F153" s="13"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
         <v>9400</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D154" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A154,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A154,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11521,15 +11498,15 @@
       </c>
       <c r="F154" s="13"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
         <v>9410</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D155" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A155,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A155,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11541,12 +11518,12 @@
       </c>
       <c r="F155" s="13"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
         <v>9420</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C156" s="19"/>
       <c r="D156" s="23">
@@ -11559,12 +11536,12 @@
       </c>
       <c r="F156" s="13"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B157" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D157" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A156,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A156,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11576,7 +11553,7 @@
       </c>
       <c r="F157" s="13"/>
     </row>
-    <row r="158" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="32"/>
       <c r="B158" s="31" t="s">
         <v>273</v>
@@ -11592,7 +11569,7 @@
       </c>
       <c r="F158" s="13"/>
     </row>
-    <row r="159" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="27"/>
       <c r="B159" s="28" t="s">
         <v>33</v>
@@ -11609,7 +11586,7 @@
       <c r="F159" s="13"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
       <c r="B160" s="24" t="s">
         <v>54</v>
@@ -11619,7 +11596,7 @@
       <c r="E160" s="23"/>
       <c r="F160" s="13"/>
     </row>
-    <row r="161" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
       <c r="B161" s="24" t="s">
         <v>122</v>
@@ -11629,7 +11606,7 @@
       <c r="E161" s="23"/>
       <c r="F161" s="19"/>
     </row>
-    <row r="162" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="19">
         <v>50000</v>
       </c>
@@ -11637,7 +11614,7 @@
         <v>108</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D162" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A162,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A162,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11649,7 +11626,7 @@
       </c>
       <c r="F162" s="19"/>
     </row>
-    <row r="163" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="19">
         <v>50020</v>
       </c>
@@ -11669,7 +11646,7 @@
       </c>
       <c r="F163" s="19"/>
     </row>
-    <row r="164" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="19">
         <v>50040</v>
       </c>
@@ -11677,7 +11654,7 @@
         <v>111</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D164" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A164,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A164,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11689,7 +11666,7 @@
       </c>
       <c r="F164" s="19"/>
     </row>
-    <row r="165" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="19">
         <v>50060</v>
       </c>
@@ -11707,12 +11684,12 @@
       </c>
       <c r="F165" s="19"/>
     </row>
-    <row r="166" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D166" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A165,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A165,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11724,7 +11701,7 @@
       </c>
       <c r="F166" s="19"/>
     </row>
-    <row r="167" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="31" t="s">
         <v>120</v>
@@ -11740,7 +11717,7 @@
       </c>
       <c r="F167" s="19"/>
     </row>
-    <row r="168" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="19"/>
       <c r="B168" s="24" t="s">
         <v>121</v>
@@ -11750,7 +11727,7 @@
       <c r="E168" s="23"/>
       <c r="F168" s="19"/>
     </row>
-    <row r="169" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="19">
         <v>51000</v>
       </c>
@@ -11758,7 +11735,7 @@
         <v>113</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D169" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A169,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A169,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11770,7 +11747,7 @@
       </c>
       <c r="F169" s="19"/>
     </row>
-    <row r="170" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="19">
         <v>51020</v>
       </c>
@@ -11790,7 +11767,7 @@
       </c>
       <c r="F170" s="19"/>
     </row>
-    <row r="171" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="19">
         <v>51040</v>
       </c>
@@ -11798,7 +11775,7 @@
         <v>115</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D171" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A171,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A171,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11810,7 +11787,7 @@
       </c>
       <c r="F171" s="19"/>
     </row>
-    <row r="172" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="19">
         <v>51060</v>
       </c>
@@ -11828,12 +11805,12 @@
       </c>
       <c r="F172" s="19"/>
     </row>
-    <row r="173" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D173" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A172,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A172,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11845,7 +11822,7 @@
       </c>
       <c r="F173" s="19"/>
     </row>
-    <row r="174" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="31" t="s">
         <v>123</v>
@@ -11861,7 +11838,7 @@
       </c>
       <c r="F174" s="19"/>
     </row>
-    <row r="175" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
       <c r="B175" s="24" t="s">
         <v>124</v>
@@ -11871,7 +11848,7 @@
       <c r="E175" s="23"/>
       <c r="F175" s="19"/>
     </row>
-    <row r="176" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="19">
         <v>51500</v>
       </c>
@@ -11879,7 +11856,7 @@
         <v>117</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D176" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A176,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A176,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11891,13 +11868,13 @@
       </c>
       <c r="F176" s="19"/>
     </row>
-    <row r="177" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="19"/>
       <c r="B177" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D177" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A177,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A177,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11909,7 +11886,7 @@
       </c>
       <c r="F177" s="19"/>
     </row>
-    <row r="178" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="B178" s="31" t="s">
         <v>125</v>
@@ -11925,7 +11902,7 @@
       </c>
       <c r="F178" s="19"/>
     </row>
-    <row r="179" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="19"/>
       <c r="B179" s="39"/>
       <c r="C179" s="19"/>
@@ -11933,7 +11910,7 @@
       <c r="E179" s="23"/>
       <c r="F179" s="19"/>
     </row>
-    <row r="180" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="31" t="s">
         <v>126</v>
@@ -11949,7 +11926,7 @@
       </c>
       <c r="F180" s="19"/>
     </row>
-    <row r="181" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="19"/>
       <c r="B181" s="24" t="s">
         <v>100</v>
@@ -11959,7 +11936,7 @@
       <c r="E181" s="23"/>
       <c r="F181" s="19"/>
     </row>
-    <row r="182" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="19">
         <v>52000</v>
       </c>
@@ -11967,7 +11944,7 @@
         <v>118</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D182" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A182,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A182,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -11979,7 +11956,7 @@
       </c>
       <c r="F182" s="19"/>
     </row>
-    <row r="183" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="19">
         <v>52020</v>
       </c>
@@ -11997,13 +11974,13 @@
       </c>
       <c r="F183" s="19"/>
     </row>
-    <row r="184" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="21"/>
       <c r="B184" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D184" s="22">
         <f>IF(""=IFERROR(VLOOKUP($A183,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A183,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12015,7 +11992,7 @@
       </c>
       <c r="F184" s="19"/>
     </row>
-    <row r="185" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="27"/>
       <c r="B185" s="30" t="s">
         <v>127</v>
@@ -12031,7 +12008,7 @@
       </c>
       <c r="F185" s="19"/>
     </row>
-    <row r="186" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="19"/>
       <c r="B186" s="24" t="s">
         <v>55</v>
@@ -12041,7 +12018,7 @@
       <c r="E186" s="23"/>
       <c r="F186" s="13"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="19">
         <v>53000</v>
       </c>
@@ -12049,7 +12026,7 @@
         <v>44</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D187" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A187,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A187,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12061,7 +12038,7 @@
       </c>
       <c r="F187" s="13"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="19">
         <v>53020</v>
       </c>
@@ -12079,12 +12056,12 @@
       </c>
       <c r="F188" s="13"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B189" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D189" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A188,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A188,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12096,7 +12073,7 @@
       </c>
       <c r="F189" s="13"/>
     </row>
-    <row r="190" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="32"/>
       <c r="B190" s="31" t="s">
         <v>61</v>
@@ -12112,7 +12089,7 @@
       </c>
       <c r="F190" s="13"/>
     </row>
-    <row r="191" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="19">
         <v>54000</v>
       </c>
@@ -12120,7 +12097,7 @@
         <v>101</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D191" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A191,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A191,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12131,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="19">
         <v>54020</v>
       </c>
@@ -12139,7 +12116,7 @@
         <v>274</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D192" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A192,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A192,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12150,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="19">
         <v>54040</v>
       </c>
@@ -12158,7 +12135,7 @@
         <v>275</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D193" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A193,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A193,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12169,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="19">
         <v>54060</v>
       </c>
@@ -12186,12 +12163,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D195" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A194,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A194,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12202,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="32"/>
       <c r="B196" s="31" t="s">
         <v>277</v>
@@ -12217,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="27"/>
       <c r="B197" s="28" t="s">
         <v>62</v>
@@ -12233,7 +12210,7 @@
       </c>
       <c r="F197" s="13"/>
     </row>
-    <row r="198" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="19"/>
       <c r="B198" s="24" t="s">
         <v>56</v>
@@ -12243,15 +12220,15 @@
       <c r="E198" s="23"/>
       <c r="F198" s="13"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="19">
         <v>55000</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D199" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A199,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A199,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12263,7 +12240,7 @@
       </c>
       <c r="F199" s="13"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="19">
         <v>55040</v>
       </c>
@@ -12271,7 +12248,7 @@
         <v>129</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D200" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A200,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A200,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12283,13 +12260,13 @@
       </c>
       <c r="F200" s="13"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="21"/>
       <c r="B201" s="21" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D201" s="22">
         <f>IF(""=IFERROR(VLOOKUP($A201,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A201,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12301,7 +12278,7 @@
       </c>
       <c r="F201" s="13"/>
     </row>
-    <row r="202" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="27"/>
       <c r="B202" s="28" t="s">
         <v>57</v>
@@ -12317,7 +12294,7 @@
       </c>
       <c r="F202" s="26"/>
     </row>
-    <row r="203" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="32"/>
       <c r="B203" s="31" t="s">
         <v>58</v>
@@ -12333,7 +12310,7 @@
       </c>
       <c r="F203" s="26"/>
     </row>
-    <row r="204" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="32"/>
       <c r="B204" s="31" t="s">
         <v>59</v>
@@ -12349,7 +12326,7 @@
       </c>
       <c r="F204" s="26"/>
     </row>
-    <row r="205" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="19"/>
       <c r="B205" s="24" t="s">
         <v>60</v>
@@ -12359,7 +12336,7 @@
       <c r="E205" s="23"/>
       <c r="F205" s="13"/>
     </row>
-    <row r="206" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="19"/>
       <c r="B206" s="24" t="s">
         <v>63</v>
@@ -12369,15 +12346,15 @@
       <c r="E206" s="23"/>
       <c r="F206" s="13"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="19">
         <v>60000</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D207" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A207,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A207,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12389,15 +12366,15 @@
       </c>
       <c r="F207" s="13"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="19">
         <v>60020</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D208" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A208,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A208,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12409,15 +12386,15 @@
       </c>
       <c r="F208" s="13"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="19">
         <v>60040</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D209" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A209,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A209,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12429,7 +12406,7 @@
       </c>
       <c r="F209" s="13"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="19">
         <v>60100</v>
       </c>
@@ -12447,12 +12424,12 @@
       </c>
       <c r="F210" s="13"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B211" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D211" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A210,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A210,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12463,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="32"/>
       <c r="B212" s="31" t="s">
         <v>64</v>
@@ -12478,7 +12455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="19">
         <v>60120</v>
       </c>
@@ -12486,7 +12463,7 @@
         <v>47</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D213" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A213,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A213,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12497,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="19">
         <v>60140</v>
       </c>
@@ -12505,7 +12482,7 @@
         <v>48</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D214" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A214,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A214,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12516,7 +12493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="19">
         <v>60160</v>
       </c>
@@ -12524,7 +12501,7 @@
         <v>130</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D215" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A215,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A215,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12535,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="19">
         <v>60180</v>
       </c>
@@ -12543,7 +12520,7 @@
         <v>131</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D216" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A216,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A216,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12554,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="19">
         <v>60197</v>
       </c>
@@ -12562,7 +12539,7 @@
         <v>132</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D217" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A217,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A217,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12573,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="19">
         <v>60200</v>
       </c>
@@ -12590,12 +12567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B219" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D219" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A218,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A218,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12606,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="20"/>
       <c r="B220" s="31" t="s">
         <v>65</v>
@@ -12621,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="19"/>
       <c r="B221" s="24" t="s">
         <v>134</v>
@@ -12630,7 +12607,7 @@
       <c r="D221" s="23"/>
       <c r="E221" s="23"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="19">
         <v>61000</v>
       </c>
@@ -12638,7 +12615,7 @@
         <v>135</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D222" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A222,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A222,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12649,15 +12626,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="19">
         <v>61020</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D223" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A223,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A223,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12668,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="19">
         <v>61040</v>
       </c>
@@ -12685,12 +12662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B225" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D225" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A224,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A224,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12701,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="32"/>
       <c r="B226" s="31" t="s">
         <v>279</v>
@@ -12716,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="19"/>
       <c r="B227" s="24" t="s">
         <v>138</v>
@@ -12725,7 +12702,7 @@
       <c r="D227" s="23"/>
       <c r="E227" s="23"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="19">
         <v>62000</v>
       </c>
@@ -12742,13 +12719,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="19"/>
       <c r="B229" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D229" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A229,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A229,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12759,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="32"/>
       <c r="B230" s="31" t="s">
         <v>280</v>
@@ -12774,7 +12751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="19"/>
       <c r="B231" s="24" t="s">
         <v>66</v>
@@ -12783,7 +12760,7 @@
       <c r="D231" s="23"/>
       <c r="E231" s="23"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="19">
         <v>63000</v>
       </c>
@@ -12791,7 +12768,7 @@
         <v>141</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D232" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A232,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A232,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12802,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="19">
         <v>63020</v>
       </c>
@@ -12810,7 +12787,7 @@
         <v>142</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D233" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A233,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A233,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12821,7 +12798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="19">
         <v>63040</v>
       </c>
@@ -12829,7 +12806,7 @@
         <v>143</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D234" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A234,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A234,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12840,15 +12817,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="19">
         <v>63060</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D235" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A235,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A235,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12859,7 +12836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="19">
         <v>63080</v>
       </c>
@@ -12867,7 +12844,7 @@
         <v>144</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D236" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A236,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A236,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12878,12 +12855,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="19">
         <v>63100</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C237" s="19"/>
       <c r="D237" s="23">
@@ -12895,12 +12872,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B238" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D238" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A237,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A237,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12911,7 +12888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="32"/>
       <c r="B239" s="31" t="s">
         <v>67</v>
@@ -12926,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
       <c r="B240" s="24" t="s">
         <v>68</v>
@@ -12935,7 +12912,7 @@
       <c r="D240" s="15"/>
       <c r="E240" s="15"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="19">
         <v>64000</v>
       </c>
@@ -12943,7 +12920,7 @@
         <v>50</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D241" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A241,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A241,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12954,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="19">
         <v>64020</v>
       </c>
@@ -12962,7 +12939,7 @@
         <v>51</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D242" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A242,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A242,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12973,7 +12950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="19">
         <v>64040</v>
       </c>
@@ -12981,7 +12958,7 @@
         <v>145</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D243" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A243,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A243,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -12992,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="19">
         <v>64060</v>
       </c>
@@ -13000,7 +12977,7 @@
         <v>52</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D244" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A244,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A244,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13011,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="19">
         <v>64080</v>
       </c>
@@ -13019,7 +12996,7 @@
         <v>146</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D245" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A245,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A245,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13030,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="19">
         <v>64100</v>
       </c>
@@ -13047,12 +13024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B247" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D247" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A246,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A246,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13063,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7"/>
       <c r="B248" s="25" t="s">
         <v>69</v>
@@ -13078,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="24" t="s">
         <v>155</v>
@@ -13087,7 +13064,7 @@
       <c r="D249" s="15"/>
       <c r="E249" s="15"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="19">
         <v>65000</v>
       </c>
@@ -13095,7 +13072,7 @@
         <v>147</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D250" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A250,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A250,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13106,7 +13083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="19">
         <v>65020</v>
       </c>
@@ -13114,7 +13091,7 @@
         <v>148</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D251" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A251,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A251,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13125,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="19">
         <v>65040</v>
       </c>
@@ -13133,7 +13110,7 @@
         <v>149</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D252" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A252,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A252,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13144,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="19">
         <v>65060</v>
       </c>
@@ -13152,7 +13129,7 @@
         <v>150</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D253" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A253,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A253,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13163,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="19">
         <v>65080</v>
       </c>
@@ -13171,7 +13148,7 @@
         <v>151</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D254" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A254,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A254,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13182,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="19">
         <v>65100</v>
       </c>
@@ -13190,7 +13167,7 @@
         <v>152</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D255" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A255,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A255,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13201,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="19">
         <v>65120</v>
       </c>
@@ -13218,12 +13195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B257" s="85" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D257" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A256,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A256,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13234,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="47"/>
       <c r="B258" s="31" t="s">
         <v>154</v>
@@ -13249,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="26"/>
       <c r="B259" s="41" t="s">
         <v>70</v>
@@ -13264,7 +13241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7"/>
       <c r="B260" s="25" t="s">
         <v>71</v>
@@ -13279,14 +13256,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="C261" s="13"/>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="13"/>
       <c r="B262" s="14" t="s">
         <v>156</v>
@@ -13295,7 +13272,7 @@
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="19">
         <v>99999</v>
       </c>
@@ -13303,7 +13280,7 @@
         <v>157</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D263" s="23">
         <f>IF(""=IFERROR(VLOOKUP($A263,in_saldo!$A$1:$D$1000,3,FALSE),""),0,VLOOKUP($A263,in_saldo!$A$1:$D$1000,3,FALSE))</f>
@@ -13314,28 +13291,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="C264" s="13"/>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="C265" s="13"/>
       <c r="D265" s="15"/>
       <c r="E265" s="15"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="C266" s="13"/>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="C267" s="13"/>
@@ -13360,14 +13337,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13381,7 +13358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -13395,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1200</v>
       </c>
@@ -13409,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1250</v>
       </c>
@@ -13423,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2050</v>
       </c>
@@ -13437,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2060</v>
       </c>
@@ -13451,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3140</v>
       </c>
@@ -13465,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3160</v>
       </c>
@@ -13479,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3280</v>
       </c>
@@ -13493,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4040</v>
       </c>
@@ -13507,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6085</v>
       </c>
@@ -13521,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6200</v>
       </c>
@@ -13535,7 +13512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6400</v>
       </c>
@@ -13549,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7080</v>
       </c>
@@ -13563,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7120</v>
       </c>
@@ -13577,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7160</v>
       </c>
@@ -13591,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7200</v>
       </c>
@@ -13605,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7220</v>
       </c>
@@ -13619,7 +13596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7240</v>
       </c>
@@ -13633,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7280</v>
       </c>
@@ -13647,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7300</v>
       </c>
@@ -13661,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7320</v>
       </c>
@@ -13675,7 +13652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8040</v>
       </c>
@@ -13689,7 +13666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8050</v>
       </c>
@@ -13703,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9000</v>
       </c>
@@ -13717,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9200</v>
       </c>
@@ -13731,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>53000</v>
       </c>
@@ -13745,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>55000</v>
       </c>
@@ -13759,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>60100</v>
       </c>
@@ -13773,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>60120</v>
       </c>
@@ -13787,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>60140</v>
       </c>
@@ -13801,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>60160</v>
       </c>
@@ -13815,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>63100</v>
       </c>
@@ -13829,7 +13806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>64000</v>
       </c>
@@ -13843,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>64020</v>
       </c>
@@ -13857,7 +13834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>64060</v>
       </c>
@@ -13871,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>64100</v>
       </c>
@@ -13885,535 +13862,535 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38"/>
       <c r="D38"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39"/>
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40"/>
       <c r="D40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41"/>
       <c r="D41"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42"/>
       <c r="D42"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44"/>
       <c r="D44"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45"/>
       <c r="D45"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46"/>
       <c r="D46"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47"/>
       <c r="D47"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48"/>
       <c r="D48"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49"/>
       <c r="D49"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50"/>
       <c r="D50"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51"/>
       <c r="D51"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52"/>
       <c r="D52"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53"/>
       <c r="D53"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54"/>
       <c r="D54"/>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55"/>
       <c r="D55"/>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56"/>
       <c r="D56"/>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C57"/>
       <c r="D57"/>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C58"/>
       <c r="D58"/>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C59"/>
       <c r="D59"/>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C60"/>
       <c r="D60"/>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61"/>
       <c r="D61"/>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C62"/>
       <c r="D62"/>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C63"/>
       <c r="D63"/>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C64"/>
       <c r="D64"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65"/>
       <c r="D65"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66"/>
       <c r="D66"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67"/>
       <c r="D67"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68"/>
       <c r="D68"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69"/>
       <c r="D69"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="D70"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="D71"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="D72"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="D73"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74"/>
       <c r="D74"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75"/>
       <c r="D75"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76"/>
       <c r="D76"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77"/>
       <c r="D77"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78"/>
       <c r="D78"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79"/>
       <c r="D79"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C80"/>
       <c r="D80"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81"/>
       <c r="D81"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82"/>
       <c r="D82"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83"/>
       <c r="D83"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C84"/>
       <c r="D84"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C85"/>
       <c r="D85"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C86"/>
       <c r="D86"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C87"/>
       <c r="D87"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88"/>
       <c r="D88"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C89"/>
       <c r="D89"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90"/>
       <c r="D90"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C91"/>
       <c r="D91"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C92"/>
       <c r="D92"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C93"/>
       <c r="D93"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C94"/>
       <c r="D94"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C95"/>
       <c r="D95"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C96"/>
       <c r="D96"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97"/>
       <c r="D97"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98"/>
       <c r="D98"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99"/>
       <c r="D99"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100"/>
       <c r="D100"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101"/>
       <c r="D101"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102"/>
       <c r="D102"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103"/>
       <c r="D103"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104"/>
       <c r="D104"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105"/>
       <c r="D105"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106"/>
       <c r="D106"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107"/>
       <c r="D107"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108"/>
       <c r="D108"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109"/>
       <c r="D109"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110"/>
       <c r="D110"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111"/>
       <c r="D111"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C112"/>
       <c r="D112"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C113"/>
       <c r="D113"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114"/>
       <c r="D114"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115"/>
       <c r="D115"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C116"/>
       <c r="D116"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117"/>
       <c r="D117"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C118"/>
       <c r="D118"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C119"/>
       <c r="D119"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C120"/>
       <c r="D120"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C121"/>
       <c r="D121"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C122"/>
       <c r="D122"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C123"/>
       <c r="D123"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C124"/>
       <c r="D124"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C125"/>
       <c r="D125"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C126"/>
       <c r="D126"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C127"/>
       <c r="D127"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C128"/>
       <c r="D128"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129"/>
       <c r="D129"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130"/>
       <c r="D130"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131"/>
       <c r="D131"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132"/>
       <c r="D132"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133"/>
       <c r="D133"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134"/>
       <c r="D134"/>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135"/>
       <c r="D135"/>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136"/>
       <c r="D136"/>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137"/>
       <c r="D137"/>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138"/>
       <c r="D138"/>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139"/>
       <c r="D139"/>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140"/>
       <c r="D140"/>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141"/>
       <c r="D141"/>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142"/>
       <c r="D142"/>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143"/>
       <c r="D143"/>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144"/>
       <c r="D144"/>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C145"/>
       <c r="D145"/>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C146"/>
       <c r="D146"/>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C147"/>
       <c r="D147"/>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C148"/>
       <c r="D148"/>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C149"/>
       <c r="D149"/>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C150"/>
       <c r="D150"/>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C151"/>
       <c r="D151"/>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C152"/>
       <c r="D152"/>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C153"/>
       <c r="D153"/>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C154"/>
       <c r="D154"/>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C155"/>
       <c r="D155"/>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C156"/>
       <c r="D156"/>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C157"/>
       <c r="D157"/>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C158"/>
       <c r="D158"/>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C159"/>
       <c r="D159"/>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C160"/>
       <c r="D160"/>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C161"/>
       <c r="D161"/>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162"/>
       <c r="D162"/>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C163"/>
       <c r="D163"/>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C164"/>
       <c r="D164"/>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C165"/>
       <c r="D165"/>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C166"/>
       <c r="D166"/>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C167"/>
       <c r="D167"/>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C168"/>
       <c r="D168"/>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C169"/>
       <c r="D169"/>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C170"/>
       <c r="D170"/>
     </row>
